--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323632.619810632</v>
+        <v>3319328.280000763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>208.2085323732918</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.84496163790551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.4818345959004</v>
+        <v>39.17879687336167</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.60860108437684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.91567440413834</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>13.1134241603918</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>21.02847872996049</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>48.87829731168755</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>193.0299953698304</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>59.37276678201235</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>215.5654742945211</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.55872685924</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>85.31763101791184</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>54.33994922629776</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.223418696284</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227938</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.1222404669082</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8280908524515</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>97.98413062224144</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>107.317805417867</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176244</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>278.6233482716171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>238.100328699304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>175.5375697851129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>163.7145813714357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1444095748057</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37.40501058443086</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.9385224935196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>690.233069932778</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151035</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>53.98113264792551</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>53.98113264792551</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.1158302633464</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>268.1158302633464</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>268.1158302633464</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4412,22 +4412,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>947.2981113232969</v>
+        <v>1015.2809777097</v>
       </c>
       <c r="T3" t="n">
-        <v>750.4890329547345</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="U3" t="n">
-        <v>522.353186991548</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="V3" t="n">
-        <v>522.353186991548</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="W3" t="n">
-        <v>268.1158302633464</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="X3" t="n">
-        <v>268.1158302633464</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.1158302633464</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>267.4157186657818</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>267.4157186657818</v>
+        <v>1000.395242830127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>574.0438072739746</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067967</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067967</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>300.7206499575932</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>34.34299339041524</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052544</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515908</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739746</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452.2778269897948</v>
+        <v>216.7910272872682</v>
       </c>
       <c r="C6" t="n">
-        <v>452.2778269897948</v>
+        <v>42.33799800614119</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4673,25 +4673,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413019</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>660.0381257547488</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>660.0381257547488</v>
+        <v>800.618163277823</v>
       </c>
       <c r="X6" t="n">
-        <v>660.0381257547488</v>
+        <v>592.7666630722902</v>
       </c>
       <c r="Y6" t="n">
-        <v>452.2778269897948</v>
+        <v>385.0063643073362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.6421545640786</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361717</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361717</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361717</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>731.0831985378485</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>731.0831985378485</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>731.0831985378485</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.2906193943184</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.090843722203</v>
+        <v>1467.012333533204</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.128326781791</v>
+        <v>1098.049816592792</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.155835082789</v>
+        <v>739.7841179860418</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3675824845444</v>
+        <v>353.9958653877976</v>
       </c>
       <c r="F8" t="n">
-        <v>837.422081735341</v>
+        <v>347.0503646385941</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270081</v>
+        <v>335.3845466706653</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685567</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467167</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.56462266116</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762136</v>
+        <v>2435.830015762132</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762136</v>
+        <v>2227.077931858405</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762136</v>
+        <v>2227.077931858405</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762136</v>
+        <v>2227.077931858405</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762136</v>
+        <v>2227.077931858405</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762136</v>
+        <v>1853.612173597326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.690683786324</v>
+        <v>1853.612173597326</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010782</v>
+        <v>929.5097208010745</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199512</v>
+        <v>755.0566915199475</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586999</v>
+        <v>606.1222818586963</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532408</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801258</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685567</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018227</v>
+        <v>613.7598241331807</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353038</v>
+        <v>908.2958075666617</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209605</v>
+        <v>1271.362276040963</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682174</v>
+        <v>1658.446678513531</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500923</v>
+        <v>1990.33348850092</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930548</v>
+        <v>2237.368846930544</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251695</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2230.816477685344</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751577</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1767.574213519831</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1513.336856791629</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.4853565861</v>
+        <v>1305.485356586096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821146</v>
+        <v>1097.725057821143</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.2722671282244</v>
+        <v>1036.687848725426</v>
       </c>
       <c r="C10" t="n">
-        <v>540.2722671282244</v>
+        <v>867.7516657975186</v>
       </c>
       <c r="D10" t="n">
-        <v>390.1556277158886</v>
+        <v>717.6350263851829</v>
       </c>
       <c r="E10" t="n">
-        <v>390.1556277158886</v>
+        <v>569.7219328027898</v>
       </c>
       <c r="F10" t="n">
-        <v>243.2656802179783</v>
+        <v>422.8319853048794</v>
       </c>
       <c r="G10" t="n">
-        <v>243.2656802179783</v>
+        <v>254.8448604445701</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>106.1000928091766</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685567</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380146</v>
+        <v>76.63468308380132</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412619</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.156055412619</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.156055412619</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="V10" t="n">
-        <v>1278.471567206733</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="W10" t="n">
-        <v>989.0543971697718</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="X10" t="n">
-        <v>761.0648462717545</v>
+        <v>1439.128892699195</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.2722671282244</v>
+        <v>1218.336313555665</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962605</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.91837829389</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>861.9821953659832</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>711.8655559536475</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>563.9524623712543</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>417.062514873344</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>249.8664155882239</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510507</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.77659230462</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.35942226766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.35942226766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.56684312413</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>2231.588527385791</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>2817.800993781637</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>3445.398957336244</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1097.964082041489</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C19" t="n">
-        <v>929.0278991135817</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D19" t="n">
-        <v>778.911259701246</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E19" t="n">
-        <v>630.9981661188529</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>484.1082186209425</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.405126015258</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.612546871728</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841078</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998668</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,43 +5998,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784053</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504985</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>612.418238638163</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.50514505577</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578598</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648821</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1152.263640121935</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.263640121935</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.4710609784053</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6505,10 +6505,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3027.428036214345</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2858.491853286438</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.375213874102</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3437.066051942602</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3209.076501044584</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3209.076501044584</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4330.667641502879</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4041.592414847077</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,13 +6925,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,46 +6940,46 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2881.772575583814</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3512.203170455601</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3284.213619557584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3063.421040414054</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3229.995673940461</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3061.059491012554</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2910.942851600219</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2763.029758017825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2616.139810519915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2448.943711234795</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3860.426268812248</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3632.436717914231</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3411.644138770701</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.5785039035</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2771.642320975594</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2771.642320975594</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094455</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127278</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458167</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>192.7716614458181</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348511</v>
+        <v>20.98618304348518</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07129414993989</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9259388694750612</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5874149221289997</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6960474398173631</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>127.7255247667957</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>39.11615722870215</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>7.899650064973798</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.42266963728699</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.86788054217541</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>122.8084169651553</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>30.15030327141815</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>109.0289520621383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.64613085857516</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580789</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606945</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911425</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.695094722106472e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101745</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
-        <v>1.633510302261649e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608931</v>
+        <v>138058.0537608934</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768817</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768819</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768941</v>
+        <v>9947.144321768799</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26475,19 +26475,19 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253636.1572483084</v>
+        <v>-253636.1572483085</v>
       </c>
       <c r="C6" t="n">
-        <v>426451.8233428844</v>
+        <v>426451.8233428843</v>
       </c>
       <c r="D6" t="n">
-        <v>117296.663883204</v>
+        <v>117296.6638832049</v>
       </c>
       <c r="E6" t="n">
-        <v>107453.0335146364</v>
+        <v>107105.6542602778</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753288</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209721</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.886320973</v>
       </c>
       <c r="J6" t="n">
-        <v>546363.111156215</v>
+        <v>546015.731901858</v>
       </c>
       <c r="K6" t="n">
-        <v>615362.2655753294</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="L6" t="n">
-        <v>520092.0277843117</v>
+        <v>519744.6485299549</v>
       </c>
       <c r="M6" t="n">
-        <v>482644.2898798608</v>
+        <v>482296.9106255029</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753297</v>
+        <v>615014.8863209725</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209722</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753292</v>
+        <v>615014.8863209725</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627821</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856958</v>
+        <v>640.1406900856949</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.6474457933039</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788921</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.337315912073093e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="F4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015068</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.426810084189</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>157.0643593977157</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.3929770181481</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>40.66810081629839</v>
+        <v>107.9711385388371</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.2233790975605</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>164.6689789479564</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>145.8278809113911</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402053</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>149.1202946442039</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0802084688762</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>126.4165868346783</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>183.9222898377377</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>59.10764795399763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>295.3102748386706</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>85.46799992577937</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,13 +27940,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.77644916453022</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164533716</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.9396889411277</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.47630051680177</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.833390995909991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.332978172285948e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763186</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359934</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525071</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307888</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983016</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140464</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571277</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617162</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152209</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.835446451908</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133929</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415875</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307408</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279213</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>576.0573465136317</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593833</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593833</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710396</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817599</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087207</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559162</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.337407809102</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430321</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234272</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758577</v>
+        <v>379.2332739216742</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772535</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396979</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318877</v>
       </c>
       <c r="O9" t="n">
-        <v>528.0108634532819</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>326.4584983961975</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873305</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>196.058023705903</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>433.4611020691872</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>199.0097390795091</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795091</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>242.0137592966806</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683788</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367793</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3319328.280000763</v>
+        <v>3321088.81030355</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>208.2085323732918</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0.2792495146818854</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>79.84453991653733</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>39.17879687336167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>139.7024933211787</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.91567440413834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4450108596164</v>
+        <v>212.568965117905</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.02847872996049</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>163.7784742521935</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590209</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>215.5654742945211</v>
+        <v>211.4815387487113</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.55872685924</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775162074</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.24979976115229</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.33994922629776</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.34571932180272</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227938</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.36266849663015</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>97.98413062224144</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176244</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>113.6427030833204</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187849</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6164309267675</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="C2" t="n">
-        <v>690.233069932778</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.34299339041534</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.37918061697088</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.37918061697088</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>868.3042991927468</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>693.8512699116199</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>544.9168602503686</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>385.6794052449131</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>239.1448472717981</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>101.7481608208653</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1015.2809777097</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>1036.519636212815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>818.7467779998875</v>
+        <v>336.9232408259378</v>
       </c>
       <c r="C4" t="n">
-        <v>649.8105950719806</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D4" t="n">
-        <v>499.6939556596449</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>518.5717056561775</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.395242830127</v>
+        <v>518.5717056561775</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>833.1938928750989</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.7910272872682</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>42.33799800614119</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>800.618163277823</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722902</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.0063643073362</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>668.6301385875518</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>889.4227177310819</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>889.4227177310819</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>668.6301385875518</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.012333533204</v>
+        <v>1800.497162017588</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.049816592792</v>
+        <v>1431.534645077176</v>
       </c>
       <c r="D8" t="n">
-        <v>739.7841179860418</v>
+        <v>1073.268946470426</v>
       </c>
       <c r="E8" t="n">
-        <v>353.9958653877976</v>
+        <v>687.4806938721813</v>
       </c>
       <c r="F8" t="n">
-        <v>347.0503646385941</v>
+        <v>276.4947890825737</v>
       </c>
       <c r="G8" t="n">
-        <v>335.3845466706653</v>
+        <v>264.828971114645</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467167</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045922</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762132</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858405</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858405</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858405</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="W8" t="n">
-        <v>2227.077931858405</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="X8" t="n">
-        <v>1853.612173597326</v>
+        <v>2187.097002081709</v>
       </c>
       <c r="Y8" t="n">
-        <v>1853.612173597326</v>
+        <v>2187.097002081709</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010745</v>
+        <v>929.5097208010841</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199475</v>
+        <v>755.0566915199571</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586963</v>
+        <v>606.1222818587058</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532408</v>
+        <v>446.8848268532503</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801258</v>
+        <v>300.3502688801353</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763235</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331807</v>
+        <v>506.4581980381376</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666617</v>
+        <v>800.9941814716194</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040963</v>
+        <v>1164.060649945921</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513531</v>
+        <v>1551.145052418491</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850092</v>
+        <v>1883.031862405881</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930544</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251695</v>
+        <v>2424.826280251705</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685344</v>
+        <v>2230.816477685354</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2002.726321751583</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519831</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791629</v>
+        <v>1513.336856791639</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586096</v>
+        <v>1305.485356586106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821143</v>
+        <v>1097.725057821152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1036.687848725426</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>867.7516657975186</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>717.6350263851829</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>569.7219328027898</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>422.8319853048794</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="G10" t="n">
-        <v>254.8448604445701</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H10" t="n">
-        <v>106.1000928091766</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380175</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368927</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904045</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699195</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.128892699195</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.128892699195</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1439.128892699195</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1439.128892699195</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.128892699195</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.336313555665</v>
+        <v>846.7155834576416</v>
       </c>
     </row>
     <row r="11">
@@ -5026,55 +5026,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958744</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679675</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556317</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556317</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556317</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261141</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,58 +5503,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273913</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841078</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998668</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121657</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121657</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121657</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,7 +6007,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6144,16 +6144,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6244,25 +6244,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6618,16 +6618,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,16 +6645,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
         <v>1573.595244679635</v>
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7417,31 +7417,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7563,19 +7563,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7624,73 +7624,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273903</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458167</v>
+        <v>210.4772158821402</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348518</v>
+        <v>20.98618304348493</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694750612</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>206.821805892614</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489197</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.90770736550132</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580804</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.2320606918</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>2.695094722106472e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101745</v>
+        <v>95270.23779101809</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608934</v>
+        <v>138058.0537608927</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768819</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768799</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768979</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768967</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26459,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768968</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253636.1572483085</v>
+        <v>-253636.1572483086</v>
       </c>
       <c r="C6" t="n">
-        <v>426451.8233428843</v>
+        <v>426451.8233428845</v>
       </c>
       <c r="D6" t="n">
-        <v>117296.6638832049</v>
+        <v>117296.6638832027</v>
       </c>
       <c r="E6" t="n">
-        <v>107105.6542602778</v>
+        <v>107418.2955892019</v>
       </c>
       <c r="F6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498941</v>
       </c>
       <c r="G6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="H6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.5276498942</v>
       </c>
       <c r="I6" t="n">
-        <v>615014.886320973</v>
+        <v>615327.5276498939</v>
       </c>
       <c r="J6" t="n">
-        <v>546015.731901858</v>
+        <v>546328.3732307795</v>
       </c>
       <c r="K6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="L6" t="n">
-        <v>519744.6485299549</v>
+        <v>520057.2898588754</v>
       </c>
       <c r="M6" t="n">
-        <v>482296.9106255029</v>
+        <v>482609.551954425</v>
       </c>
       <c r="N6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="O6" t="n">
-        <v>615014.8863209722</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="P6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.5276498937</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.702459562784</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856949</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933039</v>
+        <v>319.6474457933057</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788921</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.337315912073093e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139537</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841914</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139537</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>157.0643593977157</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.0273700322152</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>19.63478035467242</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>107.9711385388371</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>86.00716206785847</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.6689789479564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>145.8278809113911</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>126.4165868346783</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>122.7445240843975</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984469</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>85.46799992577937</v>
+        <v>89.5519354715891</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164533716</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164524294</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>50.47630051680177</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.7919240020253</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29277,13 +29277,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885561</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763196</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354937</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359948</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525084</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307901</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983027</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542134</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140481</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026279</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502172</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571286</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617173</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.336058015222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519089</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947594</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133945</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415886</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462353</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307424</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.19410091794276</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650344</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279213</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593833</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593833</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>379.8551982710396</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817599</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.379311731339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655064</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087221</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559175</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091033</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430331</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234321</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>62.90656844127608</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216742</v>
+        <v>396.9388283579984</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>297.5110943772544</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396989</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.9943459318887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074645</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>567.9934337203663</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.6802301787333</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357668</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228601</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.058023705903</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795091</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795091</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>242.0137592966806</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367793</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
